--- a/data/selected_treasury_rates.xlsx
+++ b/data/selected_treasury_rates.xlsx
@@ -1,40 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Projects/FINM/finm-fixedincome-2023/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E108D4D-41BC-6348-93D3-FB57A68F5378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>KYTREASNO</t>
+  </si>
+  <si>
+    <t>issue date</t>
+  </si>
+  <si>
+    <t>maturity date</t>
+  </si>
+  <si>
+    <t>maturity</t>
+  </si>
+  <si>
+    <t>coupon rate</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>ytm</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +81,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,376 +406,356 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>KYTREASNO</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>issue date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>maturity date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>maturity</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>coupon rate</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ytm</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>206896</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="2">
         <v>42277</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>44834</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.5010266940451745</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.50102669404517453</v>
+      </c>
+      <c r="E2">
         <v>1.75</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>100.36328125</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.01014363088571022</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="G2">
+        <v>1.0143630885710219E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>207688</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>44286</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>45016</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.999315537303217</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.99931553730321698</v>
+      </c>
+      <c r="E3">
         <v>0.125</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>98.45703125</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.01680443577317203</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="G3">
+        <v>1.6804435773172029E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>207775</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>44469</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>45199</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.500342231348392</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>1.5003422313483921</v>
+      </c>
+      <c r="E4">
         <v>0.25</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>97.21875</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.02130705563401196</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="G4">
+        <v>2.1307055634011959E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>207077</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>42825</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>45382</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2.001368925393566</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>2.125</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>99.5703125</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.02329352345567961</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="G5">
+        <v>2.3293523455679609E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>207416</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>43738</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>45565</v>
       </c>
-      <c r="D6" t="n">
-        <v>2.502395619438741</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>2.5023956194387411</v>
+      </c>
+      <c r="E6">
         <v>1.5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>97.62109375</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.02467981234452378</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="G6">
+        <v>2.467981234452378E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>207507</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>43921</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>45747</v>
       </c>
-      <c r="D7" t="n">
-        <v>3.000684462696783</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>3.0006844626967828</v>
+      </c>
+      <c r="E7">
         <v>0.5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>94.17578125</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.02510055748209072</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="G7">
+        <v>2.5100557482090721E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>207256</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>43373</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>45930</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>3.501711156741957</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>101.5546875</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.0251415892589888</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="G8">
+        <v>2.5141589258988802E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>207337</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>43555</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>46112</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>2.25</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>98.9296875</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.02515374859954726</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="G9">
+        <v>2.5153748599547259E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>207777</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>44469</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>46295</v>
       </c>
-      <c r="D10" t="n">
-        <v>4.501026694045175</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.8750000000000001</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="D10">
+        <v>4.5010266940451746</v>
+      </c>
+      <c r="E10">
+        <v>0.87500000000000011</v>
+      </c>
+      <c r="F10">
         <v>93.04296875</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.02501996240127173</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="G10">
+        <v>2.5019962401271731E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>207508</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>43921</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>46477</v>
       </c>
-      <c r="D11" t="n">
-        <v>4.999315537303217</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>4.9993155373032172</v>
+      </c>
+      <c r="E11">
         <v>0.625</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>91.37890625</v>
       </c>
-      <c r="G11" t="n">
-        <v>0.02451944718207198</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="G11">
+        <v>2.4519447182071979E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>207610</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>44104</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>46660</v>
       </c>
-      <c r="D12" t="n">
-        <v>5.500342231348392</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>5.5003422313483918</v>
+      </c>
+      <c r="E12">
         <v>0.375</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>89.140625</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.02483253165847266</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="G12">
+        <v>2.483253165847266E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>207691</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>44286</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>46843</v>
       </c>
-      <c r="D13" t="n">
-        <v>6.001368925393566</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>6.0013689253935656</v>
+      </c>
+      <c r="E13">
         <v>1.25</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>93.140625</v>
       </c>
-      <c r="G13" t="n">
-        <v>0.02470154081562261</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="G13">
+        <v>2.4701540815622609E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>207778</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>44469</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>47026</v>
       </c>
-      <c r="D14" t="n">
-        <v>6.50239561943874</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>6.5023956194387402</v>
+      </c>
+      <c r="E14">
         <v>1.25</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>92.7265625</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.02450346355440699</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="G14">
+        <v>2.4503463554406989E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>207863</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>44651</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>47208</v>
       </c>
-      <c r="D15" t="n">
-        <v>7.000684462696783</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>7.0006844626967828</v>
+      </c>
+      <c r="E15">
         <v>2.375</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>99.6328125</v>
       </c>
-      <c r="G15" t="n">
-        <v>0.02415774126673181</v>
+      <c r="G15">
+        <v>2.415774126673181E-2</v>
       </c>
     </row>
   </sheetData>
